--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>727.1530102947986</v>
+        <v>913.1349144314173</v>
       </c>
       <c r="AB2" t="n">
-        <v>994.9228284120851</v>
+        <v>1249.391474594341</v>
       </c>
       <c r="AC2" t="n">
-        <v>899.9687900513946</v>
+        <v>1130.151305791004</v>
       </c>
       <c r="AD2" t="n">
-        <v>727153.0102947986</v>
+        <v>913134.9144314174</v>
       </c>
       <c r="AE2" t="n">
-        <v>994922.8284120851</v>
+        <v>1249391.474594341</v>
       </c>
       <c r="AF2" t="n">
         <v>4.172203255017214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.61574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>899968.7900513946</v>
+        <v>1130151.305791004</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.506372575055</v>
+        <v>598.5115049411511</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.4533791813967</v>
+        <v>818.9098455245481</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.1883549227073</v>
+        <v>740.7542392148713</v>
       </c>
       <c r="AD3" t="n">
-        <v>461506.3725750551</v>
+        <v>598511.5049411511</v>
       </c>
       <c r="AE3" t="n">
-        <v>631453.3791813967</v>
+        <v>818909.8455245481</v>
       </c>
       <c r="AF3" t="n">
         <v>5.832432866327244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.90972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>571188.3549227073</v>
+        <v>740754.2392148713</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.1768865437986</v>
+        <v>518.5718219802744</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.9079148443508</v>
+        <v>709.5328446075658</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.5209138487021</v>
+        <v>641.8160257538208</v>
       </c>
       <c r="AD4" t="n">
-        <v>401176.8865437986</v>
+        <v>518571.8219802744</v>
       </c>
       <c r="AE4" t="n">
-        <v>548907.9148443508</v>
+        <v>709532.8446075658</v>
       </c>
       <c r="AF4" t="n">
         <v>6.501786240616742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.14351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>496520.9138487021</v>
+        <v>641816.0257538208</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>383.16674776616</v>
+        <v>500.6290030103402</v>
       </c>
       <c r="AB5" t="n">
-        <v>524.2656484175393</v>
+        <v>684.9826881115958</v>
       </c>
       <c r="AC5" t="n">
-        <v>474.2304707440275</v>
+        <v>619.6089017374652</v>
       </c>
       <c r="AD5" t="n">
-        <v>383166.74776616</v>
+        <v>500629.0030103402</v>
       </c>
       <c r="AE5" t="n">
-        <v>524265.6484175393</v>
+        <v>684982.6881115958</v>
       </c>
       <c r="AF5" t="n">
         <v>6.634409336251898e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.65740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>474230.4707440275</v>
+        <v>619608.9017374652</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>575.5703208033037</v>
+        <v>740.105490936361</v>
       </c>
       <c r="AB2" t="n">
-        <v>787.5207052935314</v>
+        <v>1012.644983848987</v>
       </c>
       <c r="AC2" t="n">
-        <v>712.3608344725678</v>
+        <v>915.9995678466005</v>
       </c>
       <c r="AD2" t="n">
-        <v>575570.3208033037</v>
+        <v>740105.490936361</v>
       </c>
       <c r="AE2" t="n">
-        <v>787520.7052935314</v>
+        <v>1012644.983848987</v>
       </c>
       <c r="AF2" t="n">
         <v>5.247402375906156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.73148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>712360.8344725678</v>
+        <v>915999.5678466004</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.2705859137918</v>
+        <v>520.0835594464164</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.4584096378952</v>
+        <v>711.6012705018913</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.9732561566868</v>
+        <v>643.687043983846</v>
       </c>
       <c r="AD3" t="n">
-        <v>394270.5859137918</v>
+        <v>520083.5594464164</v>
       </c>
       <c r="AE3" t="n">
-        <v>539458.4096378952</v>
+        <v>711601.2705018914</v>
       </c>
       <c r="AF3" t="n">
         <v>6.88831918278149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.93055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>487973.2561566868</v>
+        <v>643687.043983846</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.9979996384464</v>
+        <v>493.7768077522903</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.5110980312637</v>
+        <v>675.6072122620121</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.4567055174236</v>
+        <v>611.1282081444028</v>
       </c>
       <c r="AD4" t="n">
-        <v>367997.9996384464</v>
+        <v>493776.8077522903</v>
       </c>
       <c r="AE4" t="n">
-        <v>503511.0980312637</v>
+        <v>675607.2122620122</v>
       </c>
       <c r="AF4" t="n">
         <v>7.226621951537775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.76157407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>455456.7055174236</v>
+        <v>611128.2081444028</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.921737857654</v>
+        <v>477.5430004740988</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.9878238957147</v>
+        <v>653.3954009589595</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.5103894748106</v>
+        <v>591.0362609376405</v>
       </c>
       <c r="AD2" t="n">
-        <v>355921.7378576541</v>
+        <v>477543.0004740988</v>
       </c>
       <c r="AE2" t="n">
-        <v>486987.8238957147</v>
+        <v>653395.4009589595</v>
       </c>
       <c r="AF2" t="n">
         <v>9.31616320014205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>440510.3894748106</v>
+        <v>591036.2609376404</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.8662451424084</v>
+        <v>530.5880615223321</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.3781492237781</v>
+        <v>725.9739936680838</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.4234627013911</v>
+        <v>656.6880546233006</v>
       </c>
       <c r="AD2" t="n">
-        <v>397866.2451424084</v>
+        <v>530588.061522332</v>
       </c>
       <c r="AE2" t="n">
-        <v>544378.1492237782</v>
+        <v>725973.9936680838</v>
       </c>
       <c r="AF2" t="n">
         <v>7.819387641104794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.55092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>492423.4627013911</v>
+        <v>656688.0546233006</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.7447680833053</v>
+        <v>479.98401433475</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.1139301599818</v>
+        <v>656.7353038130336</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.5290217377161</v>
+        <v>594.0574081509048</v>
       </c>
       <c r="AD3" t="n">
-        <v>356744.7680833053</v>
+        <v>479984.01433475</v>
       </c>
       <c r="AE3" t="n">
-        <v>488113.9301599818</v>
+        <v>656735.3038130336</v>
       </c>
       <c r="AF3" t="n">
         <v>8.451962075945307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.56018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>441529.021737716</v>
+        <v>594057.4081509048</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.5308668053881</v>
+        <v>498.9467862553834</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.6084345144001</v>
+        <v>682.6810049332985</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.3538751502398</v>
+        <v>617.5268879712719</v>
       </c>
       <c r="AD2" t="n">
-        <v>369530.8668053881</v>
+        <v>498946.7862553833</v>
       </c>
       <c r="AE2" t="n">
-        <v>505608.4345144001</v>
+        <v>682681.0049332984</v>
       </c>
       <c r="AF2" t="n">
         <v>1.00216262370512e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.39583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>457353.8751502398</v>
+        <v>617526.8879712719</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.3542501488905</v>
+        <v>783.0466358902107</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.3771237490492</v>
+        <v>1071.398952804458</v>
       </c>
       <c r="AC2" t="n">
-        <v>752.9362193070698</v>
+        <v>969.146140466674</v>
       </c>
       <c r="AD2" t="n">
-        <v>608354.2501488905</v>
+        <v>783046.6358902107</v>
       </c>
       <c r="AE2" t="n">
-        <v>832377.1237490493</v>
+        <v>1071398.952804458</v>
       </c>
       <c r="AF2" t="n">
         <v>4.95007119786613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>752936.2193070698</v>
+        <v>969146.140466674</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.5186486055148</v>
+        <v>542.6332364637776</v>
       </c>
       <c r="AB3" t="n">
-        <v>569.8991905279646</v>
+        <v>742.4547334185838</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.5088116425125</v>
+        <v>671.5958957028765</v>
       </c>
       <c r="AD3" t="n">
-        <v>416518.6486055148</v>
+        <v>542633.2364637776</v>
       </c>
       <c r="AE3" t="n">
-        <v>569899.1905279646</v>
+        <v>742454.7334185839</v>
       </c>
       <c r="AF3" t="n">
         <v>6.586532562662192e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.43981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>515508.8116425124</v>
+        <v>671595.8957028765</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.9517826385867</v>
+        <v>487.4589270245079</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.5525942437646</v>
+        <v>666.962809125034</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.1124870036791</v>
+        <v>603.3088147103218</v>
       </c>
       <c r="AD4" t="n">
-        <v>370951.7826385867</v>
+        <v>487458.9270245079</v>
       </c>
       <c r="AE4" t="n">
-        <v>507552.5942437646</v>
+        <v>666962.809125034</v>
       </c>
       <c r="AF4" t="n">
         <v>7.077818477611143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.68055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>459112.487003679</v>
+        <v>603308.8147103218</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.5383596529019</v>
+        <v>514.3469696810486</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.1963953771342</v>
+        <v>703.752215304436</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.0267744850221</v>
+        <v>636.5870915982176</v>
       </c>
       <c r="AD2" t="n">
-        <v>376538.3596529019</v>
+        <v>514346.9696810485</v>
       </c>
       <c r="AE2" t="n">
-        <v>515196.3953771342</v>
+        <v>703752.215304436</v>
       </c>
       <c r="AF2" t="n">
         <v>1.041837089349263e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.83101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>466026.7744850221</v>
+        <v>636587.0915982176</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.6889650751302</v>
+        <v>627.5156218290259</v>
       </c>
       <c r="AB2" t="n">
-        <v>661.8045808669126</v>
+        <v>858.594557821868</v>
       </c>
       <c r="AC2" t="n">
-        <v>598.6428805175368</v>
+        <v>776.6514982683784</v>
       </c>
       <c r="AD2" t="n">
-        <v>483688.9650751302</v>
+        <v>627515.6218290259</v>
       </c>
       <c r="AE2" t="n">
-        <v>661804.5808669126</v>
+        <v>858594.557821868</v>
       </c>
       <c r="AF2" t="n">
         <v>6.318279683940648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.56018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>598642.8805175368</v>
+        <v>776651.4982683784</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.4200239191153</v>
+        <v>482.4140295145275</v>
       </c>
       <c r="AB3" t="n">
-        <v>502.720286153586</v>
+        <v>660.0601577867087</v>
       </c>
       <c r="AC3" t="n">
-        <v>454.7413676154399</v>
+        <v>597.0649427277941</v>
       </c>
       <c r="AD3" t="n">
-        <v>367420.0239191153</v>
+        <v>482414.0295145275</v>
       </c>
       <c r="AE3" t="n">
-        <v>502720.2861535859</v>
+        <v>660060.1577867087</v>
       </c>
       <c r="AF3" t="n">
         <v>7.755183717677667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.07407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>454741.3676154399</v>
+        <v>597064.9427277942</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.0609941253319</v>
+        <v>483.054999720744</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.5972898673411</v>
+        <v>660.9371615004638</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.5346713256368</v>
+        <v>597.8582464379911</v>
       </c>
       <c r="AD4" t="n">
-        <v>368060.9941253319</v>
+        <v>483054.999720744</v>
       </c>
       <c r="AE4" t="n">
-        <v>503597.2898673411</v>
+        <v>660937.1615004638</v>
       </c>
       <c r="AF4" t="n">
         <v>7.756313105532614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.07407407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>455534.6713256368</v>
+        <v>597858.246437991</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>544.3052730859425</v>
+        <v>698.7227200208216</v>
       </c>
       <c r="AB2" t="n">
-        <v>744.7424876900798</v>
+        <v>956.0232510033435</v>
       </c>
       <c r="AC2" t="n">
-        <v>673.665309917584</v>
+        <v>864.7817337146439</v>
       </c>
       <c r="AD2" t="n">
-        <v>544305.2730859425</v>
+        <v>698722.7200208217</v>
       </c>
       <c r="AE2" t="n">
-        <v>744742.4876900797</v>
+        <v>956023.2510033435</v>
       </c>
       <c r="AF2" t="n">
         <v>5.568093763970618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.6550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>673665.3099175839</v>
+        <v>864781.7337146439</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.2577465612318</v>
+        <v>508.586271550555</v>
       </c>
       <c r="AB3" t="n">
-        <v>524.39015698354</v>
+        <v>695.87017397823</v>
       </c>
       <c r="AC3" t="n">
-        <v>474.3430963872379</v>
+        <v>629.4573012336701</v>
       </c>
       <c r="AD3" t="n">
-        <v>383257.7465612318</v>
+        <v>508586.271550555</v>
       </c>
       <c r="AE3" t="n">
-        <v>524390.15698354</v>
+        <v>695870.17397823</v>
       </c>
       <c r="AF3" t="n">
         <v>7.19746401671176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.49074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>474343.0963872379</v>
+        <v>629457.3012336701</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.651441762076</v>
+        <v>490.0472865591036</v>
       </c>
       <c r="AB4" t="n">
-        <v>498.9321899051001</v>
+        <v>670.5043168306315</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.3148019562831</v>
+        <v>606.5123258910345</v>
       </c>
       <c r="AD4" t="n">
-        <v>364651.441762076</v>
+        <v>490047.2865591036</v>
       </c>
       <c r="AE4" t="n">
-        <v>498932.1899051002</v>
+        <v>670504.3168306316</v>
       </c>
       <c r="AF4" t="n">
         <v>7.397727768684337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.83101851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>451314.8019562832</v>
+        <v>606512.3258910344</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>688.1364686925817</v>
+        <v>863.8001784667588</v>
       </c>
       <c r="AB2" t="n">
-        <v>941.5386749035987</v>
+        <v>1181.889512352554</v>
       </c>
       <c r="AC2" t="n">
-        <v>851.6795452286284</v>
+        <v>1069.091636085974</v>
       </c>
       <c r="AD2" t="n">
-        <v>688136.4686925818</v>
+        <v>863800.1784667588</v>
       </c>
       <c r="AE2" t="n">
-        <v>941538.6749035987</v>
+        <v>1181889.512352554</v>
       </c>
       <c r="AF2" t="n">
         <v>4.420294529989316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>851679.5452286284</v>
+        <v>1069091.636085974</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.6285571054494</v>
+        <v>586.17259613498</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.2016280436467</v>
+        <v>802.027206141707</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.4876481040683</v>
+        <v>725.4828552397954</v>
       </c>
       <c r="AD3" t="n">
-        <v>449628.5571054494</v>
+        <v>586172.5961349801</v>
       </c>
       <c r="AE3" t="n">
-        <v>615201.6280436467</v>
+        <v>802027.206141707</v>
       </c>
       <c r="AF3" t="n">
         <v>6.066500870811232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.41203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>556487.6481040682</v>
+        <v>725482.8552397954</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.5819524177705</v>
+        <v>509.4304762782344</v>
       </c>
       <c r="AB4" t="n">
-        <v>523.4655056225229</v>
+        <v>697.0252521303249</v>
       </c>
       <c r="AC4" t="n">
-        <v>473.5066924543599</v>
+        <v>630.5021403480916</v>
       </c>
       <c r="AD4" t="n">
-        <v>382581.9524177705</v>
+        <v>509430.4762782344</v>
       </c>
       <c r="AE4" t="n">
-        <v>523465.5056225228</v>
+        <v>697025.252130325</v>
       </c>
       <c r="AF4" t="n">
         <v>6.712191424473111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.87731481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>473506.69245436</v>
+        <v>630502.1403480916</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.0524930712559</v>
+        <v>496.2065127925102</v>
       </c>
       <c r="AB5" t="n">
-        <v>518.6363436358646</v>
+        <v>678.9316418890625</v>
       </c>
       <c r="AC5" t="n">
-        <v>469.1384189099369</v>
+        <v>614.1353588737138</v>
       </c>
       <c r="AD5" t="n">
-        <v>379052.4930712559</v>
+        <v>496206.5127925102</v>
       </c>
       <c r="AE5" t="n">
-        <v>518636.3436358646</v>
+        <v>678931.6418890625</v>
       </c>
       <c r="AF5" t="n">
         <v>6.776566661920104e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>469138.418909937</v>
+        <v>614135.3588737138</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.247142995943</v>
+        <v>559.5235308448279</v>
       </c>
       <c r="AB2" t="n">
-        <v>583.2101457438301</v>
+        <v>765.5647793379352</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.5493879746186</v>
+        <v>692.5003512748378</v>
       </c>
       <c r="AD2" t="n">
-        <v>426247.142995943</v>
+        <v>559523.5308448279</v>
       </c>
       <c r="AE2" t="n">
-        <v>583210.1457438301</v>
+        <v>765564.7793379351</v>
       </c>
       <c r="AF2" t="n">
         <v>7.246609849575488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.56944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>527549.3879746186</v>
+        <v>692500.3512748379</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.510494152104</v>
+        <v>474.6800782148724</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.2663626994213</v>
+        <v>649.4782244206697</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.1897133470758</v>
+        <v>587.4929342303733</v>
       </c>
       <c r="AD3" t="n">
-        <v>360510.494152104</v>
+        <v>474680.0782148724</v>
       </c>
       <c r="AE3" t="n">
-        <v>493266.3626994214</v>
+        <v>649478.2244206697</v>
       </c>
       <c r="AF3" t="n">
         <v>8.199638800450878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.36342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>446189.7133470759</v>
+        <v>587492.9342303732</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.7575480801599</v>
+        <v>481.8681966460833</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.2361486661511</v>
+        <v>659.3133251756567</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.2578214952265</v>
+        <v>596.3893867729548</v>
       </c>
       <c r="AD2" t="n">
-        <v>359757.5480801599</v>
+        <v>481868.1966460833</v>
       </c>
       <c r="AE2" t="n">
-        <v>492236.1486661511</v>
+        <v>659313.3251756567</v>
       </c>
       <c r="AF2" t="n">
         <v>8.973849520984517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>445257.8214952265</v>
+        <v>596389.3867729548</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.0044888752017</v>
+        <v>482.1151374411251</v>
       </c>
       <c r="AB3" t="n">
-        <v>492.5740239561863</v>
+        <v>659.6512004656919</v>
       </c>
       <c r="AC3" t="n">
-        <v>445.5634504417917</v>
+        <v>596.69501571952</v>
       </c>
       <c r="AD3" t="n">
-        <v>360004.4888752017</v>
+        <v>482115.1374411251</v>
       </c>
       <c r="AE3" t="n">
-        <v>492574.0239561863</v>
+        <v>659651.2004656919</v>
       </c>
       <c r="AF3" t="n">
         <v>8.994455149914349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.25462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>445563.4504417917</v>
+        <v>596695.01571952</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.2312145303198</v>
+        <v>483.1414711520953</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.6207282337216</v>
+        <v>661.0554755276891</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.3193815391552</v>
+        <v>597.9652687405128</v>
       </c>
       <c r="AD2" t="n">
-        <v>362231.2145303198</v>
+        <v>483141.4711520954</v>
       </c>
       <c r="AE2" t="n">
-        <v>495620.7282337216</v>
+        <v>661055.4755276891</v>
       </c>
       <c r="AF2" t="n">
         <v>9.668310734622662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>448319.3815391553</v>
+        <v>597965.2687405128</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>404.9494644204657</v>
+        <v>550.8329116554889</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.0697223295963</v>
+        <v>753.6738907600221</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.1900856721982</v>
+        <v>681.7443124138341</v>
       </c>
       <c r="AD2" t="n">
-        <v>404949.4644204657</v>
+        <v>550832.9116554889</v>
       </c>
       <c r="AE2" t="n">
-        <v>554069.7223295963</v>
+        <v>753673.8907600221</v>
       </c>
       <c r="AF2" t="n">
         <v>1.069231493763717e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.55092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>501190.0856721982</v>
+        <v>681744.3124138342</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.179704301285</v>
+        <v>667.0725019579793</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.1551113157295</v>
+        <v>912.7180263406883</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.1424129726437</v>
+        <v>825.6094989145279</v>
       </c>
       <c r="AD2" t="n">
-        <v>513179.704301285</v>
+        <v>667072.5019579793</v>
       </c>
       <c r="AE2" t="n">
-        <v>702155.1113157296</v>
+        <v>912718.0263406883</v>
       </c>
       <c r="AF2" t="n">
         <v>5.928480709727342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.56712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>635142.4129726437</v>
+        <v>825609.4989145278</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.0394563933194</v>
+        <v>487.4173588922212</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.0407974597695</v>
+        <v>666.9059337725829</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.4586581934546</v>
+        <v>603.2573674616837</v>
       </c>
       <c r="AD3" t="n">
-        <v>372039.4563933194</v>
+        <v>487417.3588922212</v>
       </c>
       <c r="AE3" t="n">
-        <v>509040.7974597695</v>
+        <v>666905.9337725829</v>
       </c>
       <c r="AF3" t="n">
         <v>7.541666348174545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.02777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>460458.6581934546</v>
+        <v>603257.3674616837</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.567636211804</v>
+        <v>486.5649628730658</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.7127911033188</v>
+        <v>665.7396479341162</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.4980966541805</v>
+        <v>602.2023903067478</v>
       </c>
       <c r="AD4" t="n">
-        <v>361567.636211804</v>
+        <v>486564.9628730658</v>
       </c>
       <c r="AE4" t="n">
-        <v>494712.7911033188</v>
+        <v>665739.6479341162</v>
       </c>
       <c r="AF4" t="n">
         <v>7.564998192489108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>447498.0966541806</v>
+        <v>602202.3903067479</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>652.612450479069</v>
+        <v>827.7648835258624</v>
       </c>
       <c r="AB2" t="n">
-        <v>892.9331459747951</v>
+        <v>1132.584432049407</v>
       </c>
       <c r="AC2" t="n">
-        <v>807.7128597625015</v>
+        <v>1024.492163446845</v>
       </c>
       <c r="AD2" t="n">
-        <v>652612.450479069</v>
+        <v>827764.8835258624</v>
       </c>
       <c r="AE2" t="n">
-        <v>892933.1459747951</v>
+        <v>1132584.432049407</v>
       </c>
       <c r="AF2" t="n">
         <v>4.674247722623564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>807712.8597625014</v>
+        <v>1024492.163446845</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.7189072653412</v>
+        <v>563.9591795292184</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.2238785468778</v>
+        <v>771.6338295549273</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.3709329452352</v>
+        <v>697.9901798570859</v>
       </c>
       <c r="AD3" t="n">
-        <v>427718.9072653411</v>
+        <v>563959.1795292185</v>
       </c>
       <c r="AE3" t="n">
-        <v>585223.8785468778</v>
+        <v>771633.8295549273</v>
       </c>
       <c r="AF3" t="n">
         <v>6.324206938410255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.89120370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>529370.9329452352</v>
+        <v>697990.1798570859</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.1750508776054</v>
+        <v>492.0109963931245</v>
       </c>
       <c r="AB4" t="n">
-        <v>513.3310561658352</v>
+        <v>673.1911512583025</v>
       </c>
       <c r="AC4" t="n">
-        <v>464.3394606300295</v>
+        <v>608.9427326119243</v>
       </c>
       <c r="AD4" t="n">
-        <v>375175.0508776054</v>
+        <v>492010.9963931245</v>
       </c>
       <c r="AE4" t="n">
-        <v>513331.0561658352</v>
+        <v>673191.1512583025</v>
       </c>
       <c r="AF4" t="n">
         <v>6.91635849642992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.68055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>464339.4606300295</v>
+        <v>608942.7326119243</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>375.9205292951062</v>
+        <v>492.7564748106253</v>
       </c>
       <c r="AB5" t="n">
-        <v>514.3510526248465</v>
+        <v>674.2111477173138</v>
       </c>
       <c r="AC5" t="n">
-        <v>465.2621100585668</v>
+        <v>609.8653820404616</v>
       </c>
       <c r="AD5" t="n">
-        <v>375920.5292951062</v>
+        <v>492756.4748106253</v>
       </c>
       <c r="AE5" t="n">
-        <v>514351.0526248465</v>
+        <v>674211.1477173138</v>
       </c>
       <c r="AF5" t="n">
         <v>6.910132769177146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.70370370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>465262.1100585668</v>
+        <v>609865.3820404615</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.1746265318425</v>
+        <v>636.636859102363</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.4724460770162</v>
+        <v>871.0746370598362</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.7284091181135</v>
+        <v>787.9404962597764</v>
       </c>
       <c r="AD2" t="n">
-        <v>465174.6265318425</v>
+        <v>636636.859102363</v>
       </c>
       <c r="AE2" t="n">
-        <v>636472.4460770162</v>
+        <v>871074.6370598362</v>
       </c>
       <c r="AF2" t="n">
         <v>1.063172035135878e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.37268518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>575728.4091181136</v>
+        <v>787940.4962597764</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.7692946204667</v>
+        <v>494.5296968071556</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.6711502034562</v>
+        <v>676.6373482819998</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.1242895524807</v>
+        <v>612.0600294284478</v>
       </c>
       <c r="AD2" t="n">
-        <v>371769.2946204667</v>
+        <v>494529.6968071556</v>
       </c>
       <c r="AE2" t="n">
-        <v>508671.1502034562</v>
+        <v>676637.3482819998</v>
       </c>
       <c r="AF2" t="n">
         <v>8.423106606723983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.71759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>460124.2895524807</v>
+        <v>612060.0294284478</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.2808945916181</v>
+        <v>476.0071313595261</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.374505633342</v>
+        <v>651.293957078638</v>
       </c>
       <c r="AC3" t="n">
-        <v>437.2419212360745</v>
+        <v>589.1353759118616</v>
       </c>
       <c r="AD3" t="n">
-        <v>353280.894591618</v>
+        <v>476007.1313595261</v>
       </c>
       <c r="AE3" t="n">
-        <v>483374.505633342</v>
+        <v>651293.9570786379</v>
       </c>
       <c r="AF3" t="n">
         <v>8.718224116584097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.84953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>437241.9212360745</v>
+        <v>589135.3759118617</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.1696558022736</v>
+        <v>597.4597096203256</v>
       </c>
       <c r="AB2" t="n">
-        <v>621.4149596197768</v>
+        <v>817.4707327646601</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.107988035038</v>
+        <v>739.4524733569797</v>
       </c>
       <c r="AD2" t="n">
-        <v>454169.6558022735</v>
+        <v>597459.7096203256</v>
       </c>
       <c r="AE2" t="n">
-        <v>621414.9596197768</v>
+        <v>817470.73276466</v>
       </c>
       <c r="AF2" t="n">
         <v>6.764059896629129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.51851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>562107.988035038</v>
+        <v>739452.4733569797</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.9138655555549</v>
+        <v>478.5059211373168</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.9230055997724</v>
+        <v>654.7129114914356</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.4019327846567</v>
+        <v>592.2280301140348</v>
       </c>
       <c r="AD3" t="n">
-        <v>363913.8655555549</v>
+        <v>478505.9211373167</v>
       </c>
       <c r="AE3" t="n">
-        <v>497923.0055997723</v>
+        <v>654712.9114914356</v>
       </c>
       <c r="AF3" t="n">
         <v>7.961834397441362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.22453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>450401.9327846566</v>
+        <v>592228.0301140348</v>
       </c>
     </row>
   </sheetData>
